--- a/biology/Zoologie/Gea/Gea.xlsx
+++ b/biology/Zoologie/Gea/Gea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gea est un genre d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gea est un genre d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Océanie, en Asie, en Afrique et en Amérique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Océanie, en Asie, en Afrique et en Amérique.
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le céphalothorax est modérément convexe[2].
-Les deux rangées d'yeux sont procurvées. Les yeux médians postérieurs sont cerclés de noir et plus grands que les médians antérieurs. Les yeux latéraux sont les plus petits et ne sont pas visibles de dessus. Le quadrangle oculaire est trapézoïde, plus large en arrière[2]. 
-Les chélicères sont petites et faibles avec une bosse[2]. 
-Les pattes sont modérément longues. La longueur totale du tarse et du métatarse est plus importante que celle de la patelle et du tibia réunis. Chez le mâle le tibia de la patte I est courbé et armé de macro-seta[2]. 
-L'abdomen est allongé ou ovale, avec ou sans bosses[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le céphalothorax est modérément convexe.
+Les deux rangées d'yeux sont procurvées. Les yeux médians postérieurs sont cerclés de noir et plus grands que les médians antérieurs. Les yeux latéraux sont les plus petits et ne sont pas visibles de dessus. Le quadrangle oculaire est trapézoïde, plus large en arrière. 
+Les chélicères sont petites et faibles avec une bosse. 
+Les pattes sont modérément longues. La longueur totale du tarse et du métatarse est plus importante que celle de la patelle et du tibia réunis. Chez le mâle le tibia de la patte I est courbé et armé de macro-seta. 
+L'abdomen est allongé ou ovale, avec ou sans bosses.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 21/03/2024)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 21/03/2024) :
 Gea africana Simon, 1895
 Gea argiopides Strand, 1911
 Gea bituberculata (Thorell, 1881)
@@ -593,7 +611,7 @@
 Gea theridioides (L. Koch, 1872)
 Gea transversovittata Tullgren, 1910
 Gea zaragosa Barrion &amp; Litsinger, 1995
-Selon World Spider Catalog (version 23.5, 2023)[3] :
+Selon World Spider Catalog (version 23.5, 2023) :
 † Gea krantzi von Heyden, 1859</t>
         </is>
       </c>
@@ -622,11 +640,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par C. L. Koch en 1843.
-Son espèce type' est Gea spinipes[1].
-Ebaea[4] a été placé en synonymie par Simon en 1895[5].
+Son espèce type' est Gea spinipes.
+Ebaea a été placé en synonymie par Simon en 1895.
 </t>
         </is>
       </c>
@@ -655,7 +675,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>C. L. Koch, 1843 : Die Arachniden. Nürnberg, vol. 10, p. 37-142 (Gea spinipes p. 101, figure 823 de la planche CCCLII) (texte intégral).</t>
         </is>
